--- a/tests/files/ts_xlsx/conversionOutSaved.xlsx
+++ b/tests/files/ts_xlsx/conversionOutSaved.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">context</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">../../QML/OggettiEditDash/AddNewForm.qml - 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../QML/OggettiEditDash/AddNewForm.qml – 21</t>
   </si>
   <si>
     <t xml:space="preserve">2.1</t>
@@ -65,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -87,6 +90,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,8 +140,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,10 +166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -164,7 +177,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -178,13 +191,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -197,11 +213,14 @@
       <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
